--- a/data/trans_camb/P6906-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P6906-Edad-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">

--- a/data/trans_camb/P6906-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P6906-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>38,93</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,05</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-13,01</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,09</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,05</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,68</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>23,62</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,16</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,0</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,06; 71,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,08; 36,76</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,75; -5,3</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,83; 39,64</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,49; 51,42</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,85; 43,41</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,38; 46,48</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,42; 31,48</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,63; 24,7</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>299,22%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>69,53%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>91,32%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>151,24%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>67,08%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>195,34%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>92,28%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,02%</t>
         </is>
       </c>
     </row>
@@ -791,7 +791,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,4; 1122,77</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -821,17 +821,17 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,2; 652,27</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-48,55; 538,96</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 425,62</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,81</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,41</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,43</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,54</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,47</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,9</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,16</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,68</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,38</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,03; 7,5</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,88; 3,16</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,37; 12,77</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,3; 20,83</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,52; 23,12</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,6; 20,87</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,53; 10,53</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,18; 7,47</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,03; 10,12</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-17,47%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-30,52%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-23,33%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>27,65%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>31,57%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,25%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,59%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,23%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,09%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,31; 40,03</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-65,5; 13,89</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-69,83; 56,54</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,23; 119,01</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,36; 126,25</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,95; 121,46</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,28; 48,21</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,8; 36,06</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-45,17; 42,9</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,3</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,59</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,12</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,29</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,17</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,81</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,58</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,72</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,91</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,78; 11,38</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,94; 13,29</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,58; 10,51</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,69; 30,95</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,55; 21,39</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,87; 19,17</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,51; 15,33</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,82; 12,19</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,7; 10,84</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,36%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,22%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,09%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>73,09%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>34,25%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>27,78%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>30,5%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,21%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,85%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,83; 69,93</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,76; 81,28</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-47,27; 62,17</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,39; 228,59</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,84; 161,72</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,52; 149,65</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,55; 88,1</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,28; 68,37</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,26; 59,75</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,45</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,58</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,79</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,75</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,95</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,64</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,9</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,16</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,88</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,51; 20,28</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,03; 14,27</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,23; 5,95</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,8; 10,36</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,83; 26,52</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,56; 11,99</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,05; 13,01</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,7; 15,38</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,24; 5,2</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>27,49%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,72%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-20,42%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-31,69%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>25,16%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-13,18%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,76%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,97%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-11,75%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,22; 123,68</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-44,35; 79,29</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-56,83; 40,16</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-73,34; 74,04</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,96; 176,85</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-52,58; 77,53</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,29; 68,28</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,1; 86,14</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,63; 28,08</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,76</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,96</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,04</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,88</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>30,29</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>21,34</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,68</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>21,4</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,65</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,89; 27,89</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,14; 34,41</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,69; 11,5</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,6; 42,87</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,63; 54,93</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,31; 36,85</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,86; 26,07</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,7; 35,86</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,39; 19,44</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>58,02%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>94,92%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,18%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>109,0%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>207,96%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>146,5%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>71,66%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>131,36%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>53,12%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,0; 289,54</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,45; 367,27</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-61,7; 138,01</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-67,75; —</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,2; —</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,03; —</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,36; 277,75</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>27,9; 403,51</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,24; 214,88</t>
         </is>
       </c>
     </row>
@@ -1752,7 +1752,7 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,83</t>
         </is>
       </c>
     </row>
@@ -1858,7 +1858,7 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,38</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,31</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,99</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,91</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,0</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,95</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,1</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,95</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,35</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,47; 9,86</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,1; 7,65</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,28; 1,67</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,37; 15,94</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,18; 19,01</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,18; 11,96</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,02; 9,98</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,24; 10,14</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,16; 5,06</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,97%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,79%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-17,67%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>36,54%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>50,8%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,86%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,9%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,2%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,58%</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,88; 48,34</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,97; 37,24</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,29; 8,96</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,94; 89,47</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,75; 106,57</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,67; 68,67</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,11; 50,41</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,01; 49,18</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,28; 25,9</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P6906-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P6906-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>6,68</t>
+          <t>7,58</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-0,0</t>
+          <t>0,52</t>
         </is>
       </c>
     </row>
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-14,85; 43,41</t>
+          <t>-14,74; 43,85</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-14,63; 24,7</t>
+          <t>-14,2; 26,13</t>
         </is>
       </c>
     </row>
@@ -763,7 +763,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>67,08%</t>
+          <t>76,12%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-0,02%</t>
+          <t>4,27%</t>
         </is>
       </c>
     </row>
@@ -831,14 +831,14 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 425,62</t>
+          <t>-100,0; 434,41</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-6,43</t>
+          <t>-5,15</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>2,9</t>
+          <t>3,77</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-2,38</t>
+          <t>-1,46</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-21,37; 12,77</t>
+          <t>-20,43; 14,59</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-11,6; 20,87</t>
+          <t>-11,01; 21,51</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-13,03; 10,12</t>
+          <t>-12,91; 10,87</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-23,33%</t>
+          <t>-18,7%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>12,25%</t>
+          <t>15,91%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-9,09%</t>
+          <t>-5,57%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-69,83; 56,54</t>
+          <t>-65,29; 66,39</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-40,95; 121,46</t>
+          <t>-39,09; 123,76</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,14 +1047,14 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-45,17; 42,9</t>
+          <t>-43,92; 47,84</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-1,12</t>
+          <t>-1,21</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>1,91</t>
+          <t>1,8</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-12,58; 10,51</t>
+          <t>-12,63; 10,68</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-6,87; 19,17</t>
+          <t>-6,83; 19,09</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-6,7; 10,84</t>
+          <t>-6,96; 10,68</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-5,09%</t>
+          <t>-5,53%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>27,78%</t>
+          <t>27,76%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>8,85%</t>
+          <t>8,34%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-47,27; 62,17</t>
+          <t>-47,74; 62,08</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-24,52; 149,65</t>
+          <t>-24,05; 150,82</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,14 +1263,14 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-28,26; 59,75</t>
+          <t>-27,61; 59,68</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1290,7 +1290,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-4,79</t>
+          <t>-4,48</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-3,64</t>
+          <t>-7,0</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-2,88</t>
+          <t>-4,57</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-16,23; 5,95</t>
+          <t>-16,05; 6,2</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-21,56; 11,99</t>
+          <t>-27,38; 8,27</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-12,24; 5,2</t>
+          <t>-14,83; 3,69</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-20,42%</t>
+          <t>-19,09%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-13,18%</t>
+          <t>-25,37%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-11,75%</t>
+          <t>-18,64%</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-56,83; 40,16</t>
+          <t>-55,72; 39,22</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-52,58; 77,53</t>
+          <t>-66,42; 44,82</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1479,14 +1479,14 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-40,63; 28,08</t>
+          <t>-50,84; 17,78</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-1,04</t>
+          <t>-0,84</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>21,34</t>
+          <t>21,7</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>8,65</t>
+          <t>8,85</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-15,69; 11,5</t>
+          <t>-15,11; 11,83</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-5,31; 36,85</t>
+          <t>-5,52; 37,12</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-2,39; 19,44</t>
+          <t>-2,42; 19,66</t>
         </is>
       </c>
     </row>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-6,18%</t>
+          <t>-4,97%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>146,5%</t>
+          <t>148,99%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>53,12%</t>
+          <t>54,3%</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-61,7; 138,01</t>
+          <t>-60,69; 139,49</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1680,7 +1680,7 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-22,03; —</t>
+          <t>-20,55; —</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
@@ -1695,14 +1695,14 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-13,24; 214,88</t>
+          <t>-12,23; 219,1</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1717,12 +1717,12 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
@@ -1747,12 +1747,12 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>9,83</t>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1858,7 +1858,7 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1918,7 +1918,7 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>3,38</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>1,31</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-3,99</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>7,91</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>11,0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>4,95</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>5,1</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>4,95</t>
+          <t>—</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>0,35</t>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-2,47; 9,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-5,1; 7,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-10,28; 1,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 15,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>3,18; 19,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-2,18; 11,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>0,02; 9,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>0,24; 10,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-4,16; 5,06</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>14,97%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>5,79%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-17,67%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>36,54%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>50,8%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>22,86%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>22,9%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>22,2%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>1,58%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -2087,59 +2087,276 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>3,38</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>1,31</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>-3,61</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>7,91</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>11,0</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>3,54</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>5,1</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>4,95</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>-0,14</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>-2,47; 9,86</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>-5,1; 7,65</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>-9,83; 2,52</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>-0,37; 15,94</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>3,18; 19,01</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>-5,04; 11,06</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>0,02; 9,98</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>0,24; 10,14</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>-5,23; 4,54</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>14,97%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>5,79%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>-15,97%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>36,54%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>50,8%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>16,35%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>22,9%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>22,2%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>-0,63%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
           <t>-10,88; 48,34</t>
         </is>
       </c>
-      <c r="D31" s="2" t="inlineStr">
+      <c r="D35" s="2" t="inlineStr">
         <is>
           <t>-19,97; 37,24</t>
         </is>
       </c>
-      <c r="E31" s="2" t="inlineStr">
-        <is>
-          <t>-40,29; 8,96</t>
-        </is>
-      </c>
-      <c r="F31" s="2" t="inlineStr">
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>-38,71; 12,57</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
         <is>
           <t>-2,94; 89,47</t>
         </is>
       </c>
-      <c r="G31" s="2" t="inlineStr">
+      <c r="G35" s="2" t="inlineStr">
         <is>
           <t>11,75; 106,57</t>
         </is>
       </c>
-      <c r="H31" s="2" t="inlineStr">
-        <is>
-          <t>-8,67; 68,67</t>
-        </is>
-      </c>
-      <c r="I31" s="2" t="inlineStr">
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>-19,73; 62,58</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
         <is>
           <t>0,11; 50,41</t>
         </is>
       </c>
-      <c r="J31" s="2" t="inlineStr">
+      <c r="J35" s="2" t="inlineStr">
         <is>
           <t>1,01; 49,18</t>
         </is>
       </c>
-      <c r="K31" s="2" t="inlineStr">
-        <is>
-          <t>-17,28; 25,9</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>-21,23; 22,08</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>

--- a/data/trans_camb/P6906-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P6906-Edad-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,06; 71,0</t>
+          <t>5,8; 73,95</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-11,08; 36,76</t>
+          <t>-11,69; 38,66</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-27,75; -5,3</t>
+          <t>-26,99; -3,9</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-14,83; 39,64</t>
+          <t>-14,87; 43,21</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-9,49; 51,42</t>
+          <t>-11,26; 48,23</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-14,74; 43,85</t>
+          <t>-14,97; 43,11</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,38; 46,48</t>
+          <t>3,62; 47,71</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-5,42; 31,48</t>
+          <t>-4,72; 30,75</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-14,2; 26,13</t>
+          <t>-14,97; 29,22</t>
         </is>
       </c>
     </row>
@@ -791,12 +791,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-4,4; 1122,77</t>
+          <t>29,56; 1318,53</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 691,01</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -821,17 +821,17 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-11,2; 652,27</t>
+          <t>12,35; 759,94</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-48,55; 538,96</t>
+          <t>-48,7; 458,02</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 434,41</t>
+          <t>-100,0; 412,99</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-16,03; 7,5</t>
+          <t>-18,24; 7,66</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-20,88; 3,16</t>
+          <t>-21,62; 3,82</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-20,43; 14,59</t>
+          <t>-20,76; 14,84</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,3; 20,83</t>
+          <t>-9,56; 21,61</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-9,52; 23,12</t>
+          <t>-9,59; 24,17</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-11,01; 21,51</t>
+          <t>-11,27; 20,99</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-9,53; 10,53</t>
+          <t>-9,81; 9,37</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-12,18; 7,47</t>
+          <t>-11,43; 7,07</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-12,91; 10,87</t>
+          <t>-12,15; 12,61</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-51,31; 40,03</t>
+          <t>-53,57; 35,04</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-65,5; 13,89</t>
+          <t>-65,02; 19,32</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-65,29; 66,39</t>
+          <t>-67,39; 77,57</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-27,23; 119,01</t>
+          <t>-31,66; 127,55</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-34,36; 126,25</t>
+          <t>-31,24; 136,81</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-39,09; 123,76</t>
+          <t>-41,29; 119,66</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-32,28; 48,21</t>
+          <t>-32,69; 42,43</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-39,8; 36,06</t>
+          <t>-38,77; 33,91</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-43,92; 47,84</t>
+          <t>-42,91; 56,66</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-10,78; 11,38</t>
+          <t>-10,19; 11,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-8,94; 13,29</t>
+          <t>-10,15; 12,61</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-12,63; 10,68</t>
+          <t>-12,18; 10,78</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,69; 30,95</t>
+          <t>0,0; 30,34</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-9,55; 21,39</t>
+          <t>-5,49; 22,55</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-6,83; 19,09</t>
+          <t>-7,0; 17,9</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-3,51; 15,33</t>
+          <t>-2,44; 15,61</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-4,82; 12,19</t>
+          <t>-4,27; 12,5</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-6,96; 10,68</t>
+          <t>-6,72; 10,69</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-40,83; 69,93</t>
+          <t>-37,65; 64,95</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-34,76; 81,28</t>
+          <t>-37,79; 74,74</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-47,74; 62,08</t>
+          <t>-45,18; 63,28</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-0,39; 228,59</t>
+          <t>-1,0; 225,0</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-30,84; 161,72</t>
+          <t>-22,2; 173,56</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-24,05; 150,82</t>
+          <t>-27,9; 135,51</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-14,55; 88,1</t>
+          <t>-10,18; 91,77</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-19,28; 68,37</t>
+          <t>-18,36; 70,31</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-27,61; 59,68</t>
+          <t>-25,76; 62,52</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-6,51; 20,28</t>
+          <t>-6,61; 19,41</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-12,03; 14,27</t>
+          <t>-12,45; 14,93</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-16,05; 6,2</t>
+          <t>-17,76; 7,07</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-27,8; 10,36</t>
+          <t>-27,19; 12,03</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-12,83; 26,52</t>
+          <t>-13,23; 27,99</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-27,38; 8,27</t>
+          <t>-29,45; 7,95</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-10,05; 13,01</t>
+          <t>-7,65; 14,03</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-6,7; 15,38</t>
+          <t>-7,32; 14,54</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-14,83; 3,69</t>
+          <t>-15,27; 4,04</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-22,22; 123,68</t>
+          <t>-23,8; 112,33</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-44,35; 79,29</t>
+          <t>-43,06; 87,2</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-55,72; 39,22</t>
+          <t>-56,69; 46,91</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-73,34; 74,04</t>
+          <t>-74,24; 82,35</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-32,96; 176,85</t>
+          <t>-36,54; 186,75</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-66,42; 44,82</t>
+          <t>-68,47; 39,21</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-34,29; 68,28</t>
+          <t>-26,21; 78,38</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-23,1; 86,14</t>
+          <t>-24,67; 78,39</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-50,84; 17,78</t>
+          <t>-49,63; 20,17</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-7,89; 27,89</t>
+          <t>-7,14; 27,98</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-2,14; 34,41</t>
+          <t>-1,3; 34,47</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-15,11; 11,83</t>
+          <t>-14,45; 13,42</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-12,6; 42,87</t>
+          <t>-14,27; 41,41</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0,63; 54,93</t>
+          <t>3,01; 54,95</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-5,52; 37,12</t>
+          <t>-2,69; 38,16</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-1,86; 26,07</t>
+          <t>-2,14; 26,33</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>6,7; 35,86</t>
+          <t>5,17; 35,47</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-2,42; 19,66</t>
+          <t>-2,67; 19,26</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-36,0; 289,54</t>
+          <t>-34,66; 287,8</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-14,45; 367,27</t>
+          <t>-8,97; 397,73</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-60,69; 139,49</t>
+          <t>-57,01; 160,85</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-67,75; —</t>
+          <t>-68,0; —</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-10,2; —</t>
+          <t>-18,98; —</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-20,55; —</t>
+          <t>-12,51; —</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-12,36; 277,75</t>
+          <t>-10,57; 264,01</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>27,9; 403,51</t>
+          <t>18,27; 356,03</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-12,23; 219,1</t>
+          <t>-10,77; 228,54</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-2,47; 9,86</t>
+          <t>-3,14; 9,55</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-5,1; 7,65</t>
+          <t>-5,03; 7,37</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-9,83; 2,52</t>
+          <t>-9,4; 3,0</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 15,94</t>
+          <t>-0,73; 16,64</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>3,18; 19,01</t>
+          <t>2,68; 19,31</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-5,04; 11,06</t>
+          <t>-5,58; 10,13</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>0,02; 9,98</t>
+          <t>0,21; 10,55</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>0,24; 10,14</t>
+          <t>0,32; 10,4</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-5,23; 4,54</t>
+          <t>-4,83; 4,9</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-10,88; 48,34</t>
+          <t>-12,59; 45,57</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-19,97; 37,24</t>
+          <t>-20,12; 36,23</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-38,71; 12,57</t>
+          <t>-37,97; 14,6</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-2,94; 89,47</t>
+          <t>-2,97; 94,27</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>11,75; 106,57</t>
+          <t>10,84; 111,27</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-19,73; 62,58</t>
+          <t>-21,05; 57,72</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>0,11; 50,41</t>
+          <t>0,85; 51,52</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>1,01; 49,18</t>
+          <t>1,12; 50,55</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-21,23; 22,08</t>
+          <t>-20,34; 24,0</t>
         </is>
       </c>
     </row>
